--- a/biology/Médecine/Veine_centrale_de_la_rétine/Veine_centrale_de_la_rétine.xlsx
+++ b/biology/Médecine/Veine_centrale_de_la_rétine/Veine_centrale_de_la_rétine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Veine_centrale_de_la_r%C3%A9tine</t>
+          <t>Veine_centrale_de_la_rétine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine centrale de la rétine est une veine satellite de l'artère centrale de la rétine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Veine_centrale_de_la_r%C3%A9tine</t>
+          <t>Veine_centrale_de_la_rétine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La veine centrale de la rétine traverse le centre du nerf optique[1].
-Elle est entourée de tissu conjonctif fibreux[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La veine centrale de la rétine traverse le centre du nerf optique.
+Elle est entourée de tissu conjonctif fibreux.
 Elle quitte le nerf optique à 10 mm du globe oculaire.
-Elle se termine soit dans la veine ophtalmique supérieure, soit dans le sinus caverneux[2], [3].
+Elle se termine soit dans la veine ophtalmique supérieure, soit dans le sinus caverneux, .
 Plus rarement elle se jette dans la veine ophtalmique inférieure.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Veine_centrale_de_la_r%C3%A9tine</t>
+          <t>Veine_centrale_de_la_rétine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Zone de drainage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine centrale de la rétine draine le sang de la rétine.[réf. nécessaire]
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Veine_centrale_de_la_r%C3%A9tine</t>
+          <t>Veine_centrale_de_la_rétine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La veine centrale de la rétine est l'équivalent veineux de l'artère centrale de la rétine. Comme ce vaisseau sanguin, il peut souffrir d'occlusion (occlusion de la veine centrale de la rétine )[4]. Cette occlusion est similaire à celle observée dans le syndrome ischémique oculaire.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La veine centrale de la rétine est l'équivalent veineux de l'artère centrale de la rétine. Comme ce vaisseau sanguin, il peut souffrir d'occlusion (occlusion de la veine centrale de la rétine ). Cette occlusion est similaire à celle observée dans le syndrome ischémique oculaire.
 </t>
         </is>
       </c>
